--- a/data/trans_orig/P36B14_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B14_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C69F12DD-6F30-4225-B927-2A70A5728196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CDFBD33-3009-464D-A9A9-D5AC2F57D218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A31BCD5A-85D7-49DC-876B-F49E822E2D16}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF43E6F7-1DE4-4BE9-A964-5A79393EDA3B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="179">
   <si>
     <t>Población según el número de veces a la semana que consume los vegetales cocinados, la pasta, el arroz u otros platos aderezados con una salsa de tomate, ajo, cebolla o puerro elaborada a fuego lento con aceite de oliva (sofrito) en 2023 (Tasa respuesta: 99,62%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>11,44%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
   </si>
   <si>
     <t>17,27%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
   </si>
   <si>
     <t>14,73%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
   </si>
   <si>
     <t>Una por semana</t>
@@ -104,28 +104,28 @@
     <t>35,04%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
   </si>
   <si>
     <t>39,15%</t>
   </si>
   <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
   </si>
   <si>
     <t>37,35%</t>
   </si>
   <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
   </si>
   <si>
     <t>Dos o más por semana</t>
@@ -134,406 +134,412 @@
     <t>53,53%</t>
   </si>
   <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
     <t>43,52%</t>
   </si>
   <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,46%</t>
   </si>
   <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>44,26%</t>
   </si>
   <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
     <t>43,09%</t>
   </si>
   <si>
-    <t>40,57%</t>
+    <t>40,5%</t>
   </si>
   <si>
     <t>44,55%</t>
@@ -542,25 +548,28 @@
     <t>47,48%</t>
   </si>
   <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
   </si>
   <si>
     <t>48,09%</t>
   </si>
   <si>
-    <t>53,63%</t>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
   </si>
   <si>
     <t>47,8%</t>
   </si>
   <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -975,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8538005C-A4A5-4561-B394-E373A3875F61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C228FA82-2BEB-458C-BD82-EEE326E3BAD6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1643,13 +1652,13 @@
         <v>908953</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1705,7 +1714,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1717,13 +1726,13 @@
         <v>74984</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>144</v>
@@ -1732,13 +1741,13 @@
         <v>104999</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>215</v>
@@ -1747,13 +1756,13 @@
         <v>179983</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1768,13 +1777,13 @@
         <v>309774</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>414</v>
@@ -1783,13 +1792,13 @@
         <v>316315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>691</v>
@@ -1798,13 +1807,13 @@
         <v>626088</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,13 +1828,13 @@
         <v>343071</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>486</v>
@@ -1834,13 +1843,13 @@
         <v>448138</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>813</v>
@@ -1849,13 +1858,13 @@
         <v>791209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1911,7 +1920,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1923,13 +1932,13 @@
         <v>81406</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>146</v>
@@ -1938,13 +1947,13 @@
         <v>102450</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>225</v>
@@ -1953,13 +1962,13 @@
         <v>183856</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,13 +1983,13 @@
         <v>384970</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>588</v>
@@ -1989,13 +1998,13 @@
         <v>445502</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>1003</v>
@@ -2004,13 +2013,13 @@
         <v>830472</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,13 +2034,13 @@
         <v>495971</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>828</v>
@@ -2040,13 +2049,13 @@
         <v>602480</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>1336</v>
@@ -2055,13 +2064,13 @@
         <v>1098450</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,13 +2138,13 @@
         <v>291007</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>530</v>
@@ -2144,13 +2153,13 @@
         <v>361728</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>809</v>
@@ -2159,13 +2168,13 @@
         <v>652735</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,13 +2189,13 @@
         <v>1480272</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>2227</v>
@@ -2195,13 +2204,13 @@
         <v>1607879</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>3698</v>
@@ -2210,13 +2219,13 @@
         <v>3088151</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2240,13 @@
         <v>1600992</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>2593</v>
@@ -2246,13 +2255,13 @@
         <v>1824372</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>4203</v>
@@ -2261,13 +2270,13 @@
         <v>3425364</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,7 +2332,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
